--- a/data/outputs/OR/24.xlsx
+++ b/data/outputs/OR/24.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ128"/>
+  <dimension ref="A1:BR128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -909,6 +914,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4931625</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1327,6 +1338,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1548,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4069439</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1745,6 +1762,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1980,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>12256711</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2171,6 +2194,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4294539</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2380,6 +2408,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2593,6 +2622,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2802,6 +2832,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3023,6 +3054,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3109,7 +3141,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Carrizosa, Emilio/0000-0002-0832-8700; </t>
+          <t>Carrizosa, Emilio/0000-0002-0832-8700;</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3244,6 +3276,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3465,6 +3498,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3678,6 +3712,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3887,6 +3922,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4108,6 +4144,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4329,6 +4366,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4550,6 +4588,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4771,6 +4810,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4980,6 +5020,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>11923962</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5193,6 +5238,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5406,6 +5452,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>3722592</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5619,6 +5670,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5828,6 +5880,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6045,6 +6098,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6258,6 +6312,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6475,6 +6530,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6684,6 +6740,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6885,6 +6942,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7094,6 +7152,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7299,6 +7358,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7500,6 +7560,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7717,6 +7778,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7934,6 +7996,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8143,6 +8206,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8352,6 +8416,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3095742</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8561,6 +8630,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8762,6 +8832,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8975,6 +9046,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9184,6 +9256,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9397,6 +9470,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9594,6 +9668,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9811,6 +9886,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10032,6 +10108,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10245,6 +10322,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10458,6 +10536,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10671,6 +10750,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10884,6 +10964,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11101,6 +11182,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11302,6 +11384,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11519,6 +11602,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11732,6 +11816,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11945,6 +12030,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12166,6 +12252,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12383,6 +12470,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>2802630</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12604,6 +12696,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12825,6 +12918,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13038,6 +13132,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13239,6 +13334,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13448,6 +13544,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>3002128</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13657,6 +13758,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13858,6 +13960,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14075,6 +14178,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14296,6 +14400,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14505,6 +14610,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14722,6 +14828,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14923,6 +15030,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>2395609</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15140,6 +15252,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15341,6 +15454,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15542,6 +15656,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15751,6 +15866,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15952,6 +16068,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16161,6 +16278,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16370,6 +16488,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16571,6 +16690,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16788,6 +16908,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16997,6 +17118,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17214,6 +17336,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17415,6 +17538,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17624,6 +17748,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17825,6 +17950,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18034,6 +18160,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18239,6 +18366,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18448,6 +18576,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18665,6 +18794,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18882,6 +19012,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>4566296</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19095,6 +19230,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19312,6 +19448,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19513,6 +19650,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>1503299</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19730,6 +19872,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19939,6 +20082,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20148,6 +20292,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20365,6 +20510,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20574,6 +20720,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20787,6 +20934,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20988,6 +21136,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21197,6 +21346,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21410,6 +21560,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21619,6 +21770,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21816,6 +21968,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22033,6 +22186,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22250,6 +22404,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22467,6 +22622,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22676,6 +22832,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22893,6 +23050,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23102,6 +23260,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23311,6 +23470,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23524,6 +23684,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23737,6 +23898,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23946,6 +24108,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24155,6 +24318,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24372,6 +24536,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24585,6 +24750,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24794,6 +24960,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25003,6 +25170,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25220,6 +25388,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25429,6 +25598,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25638,6 +25808,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25855,6 +26026,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26072,6 +26244,11 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>2176543</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26285,6 +26462,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26494,6 +26672,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26711,6 +26890,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26920,6 +27100,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27137,6 +27318,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>3162485</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27346,6 +27532,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27563,6 +27750,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
